--- a/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para bajar el colesterol en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para bajar el colesterol en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16A15-Estudios-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>9.338461033702639</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>13.47344981626914</v>
+        <v>13.47344981626913</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>6.463282034181423</v>
+        <v>6.324459940334552</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.960734306111454</v>
+        <v>5.939478329728511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.121787117073419</v>
+        <v>7.310881856280922</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.910088835978013</v>
+        <v>6.056969138792216</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.489073722520568</v>
+        <v>5.8994313796222</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>12.07079686426189</v>
+        <v>11.96546479733951</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>7.132236075119375</v>
+        <v>7.264757328876015</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.65887566965081</v>
+        <v>6.842544347525001</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>10.95062117648534</v>
+        <v>11.11658676149875</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.96174803752537</v>
+        <v>13.23497666168731</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>12.75802870318888</v>
+        <v>12.69405453905673</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.34021585161159</v>
+        <v>14.41876458767383</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12.19860546258622</v>
+        <v>12.06770637402705</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.71822426770357</v>
+        <v>13.13228184502783</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>18.31605243147204</v>
+        <v>18.28226571761052</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>11.62087648593904</v>
+        <v>11.63127292065486</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>11.59332640737347</v>
+        <v>11.78873738263909</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>15.76582602708953</v>
+        <v>15.78624739850624</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.825023808191011</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.9577310793296427</v>
+        <v>0.9577310793296431</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.5886650118277795</v>
@@ -769,7 +769,7 @@
         <v>0.6860175483747429</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.989780112349228</v>
+        <v>0.9897801123492271</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.4809144400465387</v>
+        <v>0.4958577702927059</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4563864339441061</v>
+        <v>0.4664667789416019</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.5713540538451761</v>
+        <v>0.5843202351670405</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3412342166191597</v>
+        <v>0.3578587250128113</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3208686521459862</v>
+        <v>0.3490011594173916</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7058569364056563</v>
+        <v>0.7270159209937325</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4877363333599389</v>
+        <v>0.5078491405915085</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4587706225746235</v>
+        <v>0.4671578761764481</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.7543096170072314</v>
+        <v>0.7597349185201937</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>1.262953598777701</v>
+        <v>1.330334091873209</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.287124727199672</v>
+        <v>1.30021361045456</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.424042973046739</v>
+        <v>1.483554877864343</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8619157665836785</v>
+        <v>0.8690418673938985</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.8976243049813443</v>
+        <v>0.9200874239372474</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.311868111666983</v>
+        <v>1.338454478588646</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9171899491847766</v>
+        <v>0.9347310454143563</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.908216322881976</v>
+        <v>0.9371167695178935</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.259732572929448</v>
+        <v>1.252524452746264</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.325010180616562</v>
+        <v>1.218998350534639</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.914291069002163</v>
+        <v>1.922100260542332</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.723203178654908</v>
+        <v>5.766842103763382</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.4232597266727678</v>
+        <v>0.4824554928923939</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.757837877406165</v>
+        <v>1.661841305165361</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>4.488162913927274</v>
+        <v>4.50212348443309</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.355718885518212</v>
+        <v>1.477183333504341</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.198506996619751</v>
+        <v>2.253484386081718</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>5.573575987012503</v>
+        <v>5.669883597452831</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.12574663982341</v>
+        <v>4.005891481462777</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.704969924565287</v>
+        <v>4.753873879379224</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.833207953447186</v>
+        <v>8.718361074951897</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.426889945113916</v>
+        <v>3.45859013508218</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.731220076540192</v>
+        <v>4.578197766608732</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>7.202619680767472</v>
+        <v>7.179024003159346</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.385693727468213</v>
+        <v>3.378001895960468</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>4.223276975623609</v>
+        <v>4.260562707613981</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>7.573212890850299</v>
+        <v>7.501448310425572</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.3493249768326725</v>
+        <v>0.2855522124209723</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.4526322027352866</v>
+        <v>0.4785080680238405</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1.505553833331131</v>
+        <v>1.445770344057529</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.08230717866989765</v>
+        <v>0.09094910092033796</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4239256574873193</v>
+        <v>0.378363989586343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.087955369821453</v>
+        <v>1.079837177608919</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3698796187033105</v>
+        <v>0.3941935252727846</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.5780750406116897</v>
+        <v>0.5939088774120437</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1.455332066018524</v>
+        <v>1.480059142437686</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.644484473823703</v>
+        <v>1.548285939412204</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.816668725050674</v>
+        <v>1.904851051203878</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>3.560281433192624</v>
+        <v>3.503292112306383</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.268427210858963</v>
+        <v>1.252182782580636</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.750483553187339</v>
+        <v>1.678457532778959</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>2.767715500456317</v>
+        <v>2.738678869226298</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.218856307333132</v>
+        <v>1.238309370804633</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.508517240405267</v>
+        <v>1.50482076361379</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.711238026805343</v>
+        <v>2.783644064405685</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.5973703096536674</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>6.820540240173263</v>
+        <v>6.820540240173265</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.115983995613184</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.05420889960231717</v>
+        <v>-0.04902891717291196</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.203267121350126</v>
+        <v>-1.621770496110307</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.871738740788291</v>
+        <v>2.853032711734695</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.09711054330664</v>
+        <v>-1.101724345363824</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.620047963107363</v>
+        <v>-1.540324416205265</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>4.617777420332396</v>
+        <v>4.557131022961032</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.33678278045954</v>
+        <v>0.3035438450889532</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.7475878813765915</v>
+        <v>-0.8904570949841768</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>4.424218821886116</v>
+        <v>4.339829325880872</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.237601444221498</v>
+        <v>6.40189220554084</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.796934489639851</v>
+        <v>3.631305427189118</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7.790886820902815</v>
+        <v>7.740058442612222</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.735154737338394</v>
+        <v>3.598456373324309</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.890406419886921</v>
+        <v>2.69759457300889</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>8.975190059298821</v>
+        <v>8.97952839358477</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.131359213989692</v>
+        <v>3.961910070729098</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.599009959037691</v>
+        <v>2.54443907416704</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.700917083818368</v>
+        <v>7.783259047045306</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03952407325333885</v>
+        <v>-0.08290630650126553</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.2591750469326713</v>
+        <v>-0.345842724835952</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.5262998390698024</v>
+        <v>0.5559049806364524</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.385027073504568</v>
+        <v>-0.3976421732547455</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.516360295421158</v>
+        <v>-0.4815655509571066</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>1.098730156817206</v>
+        <v>1.14133675542153</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08408881081770941</v>
+        <v>0.06533251506024558</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.2034032373604435</v>
+        <v>-0.2372844200034287</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>1.077203941390829</v>
+        <v>0.9971693659707118</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.351660968724805</v>
+        <v>2.28622039042936</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.467582018151516</v>
+        <v>1.42433193967016</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.96296218771959</v>
+        <v>3.114210468935624</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.407729178012693</v>
+        <v>2.159861694886696</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.169967958294188</v>
+        <v>2.051702932897375</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>6.786367316332849</v>
+        <v>6.422343132081228</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.754540432372723</v>
+        <v>1.667569249601435</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.108182385680662</v>
+        <v>1.067750465429813</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>3.317975990704726</v>
+        <v>3.316798064437498</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>3.349481460884805</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>6.117036280902677</v>
+        <v>6.117036280902679</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.205994087640721</v>
+        <v>3.217391328481593</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.327979703799705</v>
+        <v>2.380294529619253</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.86715019539968</v>
+        <v>4.839626244966346</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.041750974147337</v>
+        <v>2.964441695219827</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.673853744357128</v>
+        <v>1.661599905571397</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.60406544292433</v>
+        <v>4.662032423250901</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.449583127123153</v>
+        <v>3.443619644610255</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>2.409318371754071</v>
+        <v>2.288648621548047</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.194126019719378</v>
+        <v>5.196879443857888</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.914255939930671</v>
+        <v>5.864336509933556</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.961267571503214</v>
+        <v>4.826051690235224</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>7.49372199011193</v>
+        <v>7.572279729552478</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.882561090774656</v>
+        <v>5.862205327282935</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.608454092182733</v>
+        <v>4.559223718046611</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>7.275865682360176</v>
+        <v>7.314417618595316</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>5.4424965207044</v>
+        <v>5.429611802111768</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.286742715841353</v>
+        <v>4.286875100303886</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>6.958053637368781</v>
+        <v>7.097114299001685</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.4873044826146332</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.8899464692701388</v>
+        <v>0.8899464692701391</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.4975783631702941</v>
+        <v>0.4889918759075426</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3639941273437042</v>
+        <v>0.3747067876846455</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.7524542127709151</v>
+        <v>0.7563626818841467</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3467641545405354</v>
+        <v>0.3406874185953641</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1987874983731659</v>
+        <v>0.1946899860760023</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.529124062108816</v>
+        <v>0.5258152392964517</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4746036530050091</v>
+        <v>0.4817261979291737</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.3241300501152185</v>
+        <v>0.3168249201883832</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.6899222838710948</v>
+        <v>0.7005977952768264</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.127979076041296</v>
+        <v>1.098182996316019</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9669562026847338</v>
+        <v>0.9168788412587459</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.441365517386775</v>
+        <v>1.44738645138649</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.8040539323480097</v>
+        <v>0.7975281646003118</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.6506521241253644</v>
+        <v>0.626589701059172</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.00284135255691</v>
+        <v>1.022314764118566</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8621914261836836</v>
+        <v>0.8450915277616193</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.6666368403075295</v>
+        <v>0.6754938822907254</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.082385705521082</v>
+        <v>1.09638617628829</v>
       </c>
     </row>
     <row r="28">
